--- a/기획서/레벨 디자인 기획자 버전/스킬 심화.xlsx
+++ b/기획서/레벨 디자인 기획자 버전/스킬 심화.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11550" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11550" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="인간 패시브" sheetId="1" r:id="rId1"/>
@@ -2050,7 +2050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -2807,8 +2807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
